--- a/quiz_sample_from_STU.xlsx
+++ b/quiz_sample_from_STU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nano2Local\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\_gitRepo\quiz_projection_supporter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3ECD5AF-55AC-4218-8F6F-2CEC0668308C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1547FBF8-FDFB-44AC-87F4-915DAD6B188B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2580" windowWidth="12150" windowHeight="1665" tabRatio="645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7095" yWindow="1740" windowWidth="21690" windowHeight="13470" tabRatio="645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="quiz" sheetId="5" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>1.</t>
     <phoneticPr fontId="1"/>
@@ -155,100 +155,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>イエズス会【耶蘇会】</t>
-    <rPh sb="4" eb="5">
-      <t>カイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>英語で「私の考えでは」を意味する「IMO」とは、何という熟語の略でしょう？</t>
-    <rPh sb="0" eb="2">
-      <t>エイゴ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ワタシ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カンガ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>イミ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ナン</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ジュクゴ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>リャク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>in my opinion</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サッカーの競技場で、監督やコーチが指示を出すために設けられた領域のことを何というでしょう？</t>
-    <rPh sb="5" eb="8">
-      <t>キョウギジョウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カントク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>シジ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>モウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>リョウイキ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ナン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テクニカルエリア</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>通常の卓球で用いるボールの直径は「40mm」ですが、ラージボールで用いるボールの直径は何mmでしょう？</t>
-    <rPh sb="0" eb="2">
-      <t>ツウジョウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>タッキュウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>モチ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>チョッケイ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>モチ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>チョッケイ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ナン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>44mm</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>辻回し</t>
     <rPh sb="0" eb="1">
       <t>ツジ</t>
@@ -281,56 +187,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>民進党が名称を変更する形で今年５月に結党された、大塚耕平(おおつか・こうへい)と玉木雄一郎(たまき・ゆういちろう)が共同代表を務める政党は何でしょう？</t>
-    <rPh sb="0" eb="3">
-      <t>ミンシントウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>メイショウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>カタチ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>コトシ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ケットウ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>キョウドウ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>ダイヒョウ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>ツト</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>セイトウ</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>ナン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>国民民主党</t>
-    <rPh sb="0" eb="2">
-      <t>コクミン</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ミンシュトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ザ・ノース・フェイス</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -384,35 +240,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アルコール発酵は、好気発酵、嫌気発酵のどちらでしょう？</t>
-    <rPh sb="5" eb="7">
-      <t>ハッコウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>コウキ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ハッコウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ケンキ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ハッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>嫌気発酵</t>
-    <rPh sb="0" eb="2">
-      <t>ケンキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ハッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>競技かるたにおいて、決まり字が６文字である札のことを何というでしょう？</t>
     <rPh sb="0" eb="2">
       <t>キョウギ</t>
@@ -445,41 +272,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>オールスパイス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>別名を「ジャマイカペッパー」や「百味胡椒」という、シナモン、クローブ、ナツメグの香りを併せ持つことから名付けられた香辛料は何でしょう？</t>
-    <rPh sb="0" eb="2">
-      <t>ベツメイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒャクミ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>コショウ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>カオ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>アワ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ナヅ</t>
-    </rPh>
-    <rPh sb="57" eb="60">
-      <t>コウシンリョウ</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>ナン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>東直己(あづま・なおみ)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -509,41 +301,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>太宰治の小説『走れメロス』で、メロスの代わりに人質となる友人の名前は何でしょう？</t>
-    <rPh sb="0" eb="2">
-      <t>ダザイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>オサム</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ショウセツ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ハシ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヒトジチ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ユウジン</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ナン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>セリヌンティウス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>四捨五入</t>
     <rPh sb="0" eb="4">
       <t>シシャゴニュウ</t>
@@ -594,108 +351,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>張作霖</t>
-    <rPh sb="0" eb="3">
-      <t>チョウサクリン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>彼を殺害した事件について、当時の日本政府は「満州某重大事件」として秘匿した、1928年、関東軍の手によって奉天へ向かう列車ごと爆殺された軍人は誰でしょう？</t>
-    <rPh sb="0" eb="1">
-      <t>カレ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>サツガイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジケン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>トウジ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ニホン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>セイフ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>マンシュウ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ボウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ジュウダイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ジケン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ヒトク</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="44" eb="47">
-      <t>カントウグン</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ホウテン</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>レッシャ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>バクサツ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>グンジン</t>
-    </rPh>
-    <rPh sb="71" eb="72">
-      <t>ダレ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>今年６月のAKB48世界選抜総選挙で、STU48のメンバーとしてランクインした３人とは、岡田奈々(おかだ・なな)、瀧野由美子(たきの・ゆみこ)と誰でしょう？</t>
-    <rPh sb="0" eb="2">
-      <t>コトシ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>セカイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>センバツ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>ソウセンキョ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>ニン</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>オカダ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ナナ</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>ダレ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>石田千穂(いしだ・ちほ)</t>
     <rPh sb="0" eb="2">
       <t>イシダ</t>
@@ -773,32 +428,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>九州にある県の中で唯一、Jリーグチームがホームを置いていないのはどこでしょう？</t>
-    <rPh sb="0" eb="2">
-      <t>キュウシュウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ユイイツ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>宮崎県</t>
-    <rPh sb="0" eb="3">
-      <t>ミヤザキケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ここを過ぎると砂漠の景色が終わって木々が茂る景色が見られるため、ポルトガル語で「緑」という意味の名前を付けられた、アフリカ大陸最西端の岬は何でしょう？</t>
     <rPh sb="3" eb="4">
       <t>ス</t>
@@ -940,6 +569,500 @@
     <t>解答</t>
     <rPh sb="0" eb="2">
       <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>父親が山形県と山口県の県令であったことから名前を付けられた、『広辞苑』の編纂で知られる国語学者は誰でしょう？</t>
+    <rPh sb="0" eb="2">
+      <t>チチオヤ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ヤマガタケン</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ヤマグチケン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケンレイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>コウジエン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヘンサン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>コクゴ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ガクシャ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ダレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新村出</t>
+    <rPh sb="0" eb="2">
+      <t>シンムラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イズル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリミア戦争後から日英同盟の締結まで、イギリスが強大な経済力と軍事力を背景に、他国と同盟を結ばずにいた状態を指す言葉は何でしょう？</t>
+    <rPh sb="4" eb="6">
+      <t>センソウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>ニチエイドウメイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>テイケツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キョウダイ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>ケイザイリョク</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>グンジリョク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>タコク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ドウメイ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ムス</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>コトバ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ナン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガンピやコウゾとともに和紙の原料となる、枝が３つに分岐することから名付けられたジンチョウゲ科の樹木は何でしょう？</t>
+    <rPh sb="11" eb="13">
+      <t>ワシ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ゲンリョウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>エダ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ブンキ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ナヅ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ジュモク</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ナン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミツマタ</t>
+  </si>
+  <si>
+    <t>『翔んで埼玉』</t>
+  </si>
+  <si>
+    <t>武蔵工業大学の第５代学長、東京工業大学の第２代学長、大阪大学の第４代総長を歴任した、宇田新太郎とともに指向性アンテナを開発し、それに名を残す工学者は誰でしょう？</t>
+    <rPh sb="0" eb="2">
+      <t>ムサシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウギョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガクチョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウキョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウギョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガクチョウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>オオサカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ソウチョウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>レキニン</t>
+    </rPh>
+    <rPh sb="51" eb="54">
+      <t>シコウセイ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>コウガク</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>ダレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>八木秀次(やぎ・ひでつぐ)</t>
+    <rPh sb="0" eb="2">
+      <t>ヤギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒデツグ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーフボードとサーファーを繋ぎ、ボードが離れてしまうことを防ぐコードを何というでしょう？</t>
+    <rPh sb="13" eb="14">
+      <t>ツナ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>フセ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ナン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リーシュ〈コード〉</t>
+  </si>
+  <si>
+    <t>神が天地創造の５日目に生み出したとされ、空の怪物・ジズ、海の怪物・リヴァイアサンとともに三頭一対を成す陸の怪物は何でしょう？</t>
+    <rPh sb="0" eb="1">
+      <t>カミ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テンチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウゾウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ソラ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カイブツ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ウミ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カイブツ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>サントウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>イッツイ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>リク</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>カイブツ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ナン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>急激な血圧の上昇・低下を防ぐ役割がある、キリンの後頭部にある網目状の毛細血管を何というでしょう？</t>
+    <rPh sb="0" eb="2">
+      <t>キュウゲキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケツアツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テイカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>フセ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヤクワリ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>コウトウブ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>アミメジョウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>モウサイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ケッカン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ナン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>円弧状、カスプ状、鳥趾状などの形状がある、河川によって運ばれた土砂が河口部に堆積することで形成される地形は何でしょう？</t>
+    <rPh sb="15" eb="17">
+      <t>ケイジョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カセン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ハコ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ドシャ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カコウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>タイセキ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ケイセイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>チケイ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ナン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018年６月のAKB48世界選抜総選挙で、STU48のメンバーとしてランクインした３人とは、岡田奈々(おかだ・なな)、瀧野由美子(たきの・ゆみこ)と誰でしょう？</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セカイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センバツ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ソウセンキョ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>オカダ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ナナ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ダレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>別解</t>
+    <rPh sb="0" eb="2">
+      <t>ベッカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イエズス会</t>
+    <rPh sb="4" eb="5">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>耶蘇会</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>光栄ある孤立</t>
+    <rPh sb="0" eb="2">
+      <t>コウエイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>栄光ある孤立</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワンダーネット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奇驚網</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三角州</t>
+    <rPh sb="0" eb="3">
+      <t>サンカクス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デルタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20.</t>
+  </si>
+  <si>
+    <t>ベヒーモス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バハムート、ヘビーモス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2019年に、二階堂ふみ(にかいどう・－)、GACKT主演により実写映画化された、ある都道府県を徹底的にディスった内容である、魔夜峰央(まや・みねお)の漫画は何でしょう？</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ニカイドウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シュエン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジッシャ</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>エイガカ</t>
+    </rPh>
+    <rPh sb="43" eb="47">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>テッテイテキ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>マンガ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>ナン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1370,248 +1493,265 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
     <col min="2" max="2" width="107.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="28.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="27.75" thickTop="1" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="27.75" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="2">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>39</v>
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
